--- a/sharedata/exceldata/excel/all/J-技能表.xlsx
+++ b/sharedata/exceldata/excel/all/J-技能表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="674">
   <si>
     <t>特蕾莎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1894,14 +1894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">[1]={hurt_rate = 0.2},
-[2]={hurt_rate = 0.2},
-[3]={hurt_rate = 0.3},
-[4]={hurt_rate = 0.3},
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加4怒气//伤害+30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3141,6 +3133,32 @@
   </si>
   <si>
     <t>对所有敌人造成161%伤害$destiny，恢复自身4点怒气，自身伤害提高50%，同时免疫（1级抵御）所有减益状态，持续2回合，此技能有50%的额外命中率和暴击率。【与$unit共同出战可发动，由龙王发动】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[1]={hurt_rate = 0.2},
+[2]={hurt_rate = 0.2},
+[3]={hurt_rate = 0.3},
+[4]={hurt_rate = 0.3},
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]={hurt_rate = 0.05},
+[2]={hurt_rate = 0.05},
+[3]={hurt_rate = 0.05},
+[4]={hurt_rate = 0.05},
+[5]={hurt_rate = 0.05},
+[6]={hurt_rate = 0.05},
+[7]={hurt_rate = 0.05},
+[8]={hurt_rate = 0.05},
+[9]={hurt_rate = 0.1},
+[10]={hurt_rate = 0.15},
+[11]={hurt_rate = 0.35},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]={hurt_rate = 1},</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3333,7 +3351,7 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3377,6 +3395,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3386,9 +3408,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3719,10 +3743,10 @@
   <dimension ref="A1:AE171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="Y104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB112" sqref="AB112"/>
+      <selection pane="bottomRight" activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3741,7 +3765,7 @@
     <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.21875" style="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="56" style="13" customWidth="1"/>
     <col min="17" max="17" width="22.33203125" style="13" customWidth="1"/>
     <col min="18" max="18" width="23.77734375" style="1" customWidth="1"/>
     <col min="19" max="20" width="16.21875" style="1" customWidth="1"/>
@@ -3761,7 +3785,7 @@
     <row r="1" spans="1:31" s="19" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="G1" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>128</v>
@@ -3784,14 +3808,14 @@
       <c r="O1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>590</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>591</v>
       </c>
       <c r="S1" s="19" t="s">
         <v>27</v>
@@ -3800,10 +3824,10 @@
         <v>131</v>
       </c>
       <c r="U1" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>592</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>593</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>42</v>
@@ -3824,19 +3848,19 @@
         <v>134</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AD1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I2" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="I2" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3852,7 +3876,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>139</v>
@@ -3870,7 +3894,7 @@
         <v>141</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>141</v>
@@ -3924,13 +3948,13 @@
         <v>134</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AD3" s="16" t="s">
         <v>155</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3941,13 +3965,13 @@
         <v>157</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>391</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>158</v>
@@ -3962,13 +3986,13 @@
         <v>253</v>
       </c>
       <c r="J4" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>573</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>574</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>160</v>
@@ -4019,13 +4043,13 @@
         <v>19</v>
       </c>
       <c r="AC4" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AD4" s="16" t="s">
         <v>173</v>
       </c>
       <c r="AE4" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -4036,10 +4060,10 @@
         <v>175</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>174</v>
@@ -4063,7 +4087,7 @@
         <v>254</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>28</v>
@@ -4120,7 +4144,7 @@
         <v>177</v>
       </c>
       <c r="AE5" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -4131,11 +4155,11 @@
         <v>181</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -4149,10 +4173,10 @@
         <v>182</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -4192,7 +4216,7 @@
         <v>11106201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>C7</f>
@@ -4205,11 +4229,11 @@
         <f>MOD(B7,10)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="M7" s="17" t="str">
         <f>IF(MOD(B7,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="N7" s="17" t="str">
         <f>IF(MOD(B7,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -4239,27 +4263,27 @@
         <v>11106202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8:E91" si="0">C8</f>
         <v>终极爆弹</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ref="G8:G58" si="1">MOD(B8,10)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="M8" s="17" t="str">
         <f t="shared" ref="M8:M58" si="2">IF(MOD(B8,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N8" s="1" t="str">
+      <c r="N8" s="17" t="str">
         <f t="shared" ref="N8:N58" si="3">IF(MOD(B8,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -4303,10 +4327,10 @@
         <v>火力全开</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
@@ -4324,11 +4348,11 @@
       <c r="L9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="1" t="str">
+      <c r="M9" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N9" s="1" t="str">
+      <c r="N9" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4355,20 +4379,20 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B10" s="1">
         <v>11106204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>C10</f>
         <v>火力全开1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>336</v>
@@ -4376,10 +4400,10 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="M10" s="1">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="M10" s="17">
+        <v>4</v>
+      </c>
+      <c r="N10" s="17">
         <v>0</v>
       </c>
       <c r="O10" s="1">
@@ -4411,7 +4435,7 @@
         <v>11106205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ref="D11" si="4">C11</f>
@@ -4421,7 +4445,7 @@
         <v>190</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G11" s="1">
         <v>4</v>
@@ -4442,11 +4466,11 @@
       <c r="L11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="5">IF(MOD(B11,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="6">IF(MOD(B11,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -4473,13 +4497,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B12" s="1">
         <v>11106206</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>C12</f>
@@ -4491,10 +4515,10 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
         <v>1</v>
       </c>
       <c r="O12" s="1">
@@ -4523,7 +4547,7 @@
         <v>11101201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4536,11 +4560,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="M13" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="str">
+      <c r="N13" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -4580,17 +4604,17 @@
         <v>195</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M14" s="1" t="str">
+      <c r="M14" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N14" s="1" t="str">
+      <c r="N14" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4623,7 +4647,7 @@
         <v>11104201</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4636,11 +4660,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="M15" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="str">
+      <c r="N15" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -4670,7 +4694,7 @@
         <v>11104202</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4681,17 +4705,17 @@
         <v>亿吨重拳</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="M16" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N16" s="1" t="str">
+      <c r="N16" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4728,17 +4752,17 @@
         <v>11104203</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>狂乱蹂躏</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
@@ -4756,11 +4780,11 @@
       <c r="L17" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="M17" s="1" t="str">
+      <c r="M17" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N17" s="1" t="str">
+      <c r="N17" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4768,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R17" s="1">
         <v>5</v>
@@ -4797,7 +4821,7 @@
         <v>11103201</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4810,11 +4834,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="M18" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="1" t="str">
+      <c r="N18" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -4844,27 +4868,27 @@
         <v>11103202</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>烈焰回声</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="M19" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="N19" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4901,7 +4925,7 @@
         <v>11103101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4914,11 +4938,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M20" s="1" t="str">
+      <c r="M20" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="N20" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -4948,27 +4972,27 @@
         <v>11103102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>军火仲裁</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M21" s="1" t="str">
+      <c r="M21" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N21" s="1" t="str">
+      <c r="N21" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5015,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
@@ -5033,11 +5057,11 @@
       <c r="L22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="1" t="str">
+      <c r="M22" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N22" s="1" t="str">
+      <c r="N22" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5074,7 +5098,7 @@
         <v>11105101</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5087,11 +5111,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M23" s="1" t="str">
+      <c r="M23" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="17">
         <v>1</v>
       </c>
       <c r="O23" s="1">
@@ -5120,27 +5144,27 @@
         <v>11105102</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>秘·居合</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M24" s="1" t="str">
+      <c r="M24" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N24" s="1" t="str">
+      <c r="N24" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5171,13 +5195,13 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B25" s="1">
         <v>11105103</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>C25</f>
@@ -5189,10 +5213,10 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="M25" s="17">
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
         <v>1</v>
       </c>
       <c r="O25" s="1">
@@ -5215,32 +5239,32 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B26" s="1">
         <v>11105104</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" ref="D26" si="7">C26</f>
         <v>秘·居合1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
       </c>
-      <c r="M26" s="1" t="str">
+      <c r="M26" s="17" t="str">
         <f t="shared" ref="M26" si="8">IF(MOD(B26,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N26" s="1" t="str">
+      <c r="N26" s="17" t="str">
         <f t="shared" ref="N26" si="9">IF(MOD(B26,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -5248,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
@@ -5273,7 +5297,7 @@
         <v>11500401</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5286,11 +5310,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M27" s="1" t="str">
+      <c r="M27" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="1" t="str">
+      <c r="N27" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -5320,27 +5344,27 @@
         <v>11500402</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>毁灭射击</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M28" s="1" t="str">
+      <c r="M28" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N28" s="1" t="str">
+      <c r="N28" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5377,7 +5401,7 @@
         <v>11500501</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5390,11 +5414,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M29" s="1" t="str">
+      <c r="M29" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="1" t="str">
+      <c r="N29" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -5424,14 +5448,14 @@
         <v>11500502</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>回旋斧</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>47</v>
@@ -5440,11 +5464,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M30" s="1" t="str">
+      <c r="M30" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N30" s="1" t="str">
+      <c r="N30" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5481,7 +5505,7 @@
         <v>11401101</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5494,11 +5518,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M31" s="1" t="str">
+      <c r="M31" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="1" t="str">
+      <c r="N31" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -5528,27 +5552,27 @@
         <v>11401102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>WD-歼灭</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M32" s="1" t="str">
+      <c r="M32" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N32" s="1" t="str">
+      <c r="N32" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5585,7 +5609,7 @@
         <v>11105201</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5598,11 +5622,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M33" s="1" t="str">
+      <c r="M33" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="1" t="str">
+      <c r="N33" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -5632,14 +5656,14 @@
         <v>11105202</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>致命律动</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>110</v>
@@ -5648,11 +5672,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M34" s="1" t="str">
+      <c r="M34" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N34" s="1" t="str">
+      <c r="N34" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5682,7 +5706,7 @@
         <v>11105203</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5693,7 +5717,7 @@
         <v>末路逆袭</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" ref="G35" si="10">MOD(B35,10)</f>
@@ -5711,11 +5735,11 @@
       <c r="L35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M35" s="1" t="str">
+      <c r="M35" s="17" t="str">
         <f t="shared" ref="M35" si="11">IF(MOD(B35,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N35" s="1" t="str">
+      <c r="N35" s="17" t="str">
         <f t="shared" ref="N35" si="12">IF(MOD(B35,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -5752,24 +5776,24 @@
         <v>11303101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>破裂</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M36" s="1" t="str">
+      <c r="M36" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="1" t="str">
+      <c r="N36" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -5799,27 +5823,27 @@
         <v>11303102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>飞弹轰击</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M37" s="1" t="str">
+      <c r="M37" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N37" s="1" t="str">
+      <c r="N37" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5839,7 +5863,7 @@
         <v>3</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X37" s="17">
         <v>1</v>
@@ -5859,28 +5883,28 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B38" s="1">
         <v>11303103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" ref="D38:D39" si="13">C38</f>
         <v>破裂1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="M38" s="17">
+        <v>0</v>
+      </c>
+      <c r="N38" s="17">
         <v>1</v>
       </c>
       <c r="O38" s="1">
@@ -5903,32 +5927,32 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B39" s="1">
         <v>11303104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="13"/>
         <v>飞弹轰击1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G39" s="1">
         <v>2</v>
       </c>
-      <c r="M39" s="1" t="str">
+      <c r="M39" s="17" t="str">
         <f t="shared" ref="M39" si="14">IF(MOD(B39,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N39" s="1" t="str">
+      <c r="N39" s="17" t="str">
         <f t="shared" ref="N39" si="15">IF(MOD(B39,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -5971,24 +5995,24 @@
         <v>11406101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>焚灭</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M40" s="1" t="str">
+      <c r="M40" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="1" t="str">
+      <c r="N40" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -6025,27 +6049,27 @@
         <v>11406102</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>炎浪侵袭</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M41" s="1" t="str">
+      <c r="M41" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N41" s="1" t="str">
+      <c r="N41" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6085,7 +6109,7 @@
         <v>11406103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6096,7 +6120,7 @@
         <v>焦热地狱</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" ref="G42" si="16">MOD(B42,10)</f>
@@ -6114,11 +6138,11 @@
       <c r="L42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M42" s="1" t="str">
+      <c r="M42" s="17" t="str">
         <f t="shared" ref="M42" si="17">IF(MOD(B42,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N42" s="1" t="str">
+      <c r="N42" s="17" t="str">
         <f t="shared" ref="N42" si="18">IF(MOD(B42,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -6158,17 +6182,17 @@
         <v>11406104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D43" s="1" t="str">
         <f t="shared" ref="D43" si="19">C43</f>
         <v>超·焦热地狱</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" ref="G43" si="20">MOD(B43,10)</f>
@@ -6190,11 +6214,11 @@
       <c r="L43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M43" s="1" t="str">
+      <c r="M43" s="17" t="str">
         <f t="shared" ref="M43" si="21">IF(MOD(B43,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N43" s="1" t="str">
+      <c r="N43" s="17" t="str">
         <f t="shared" ref="N43" si="22">IF(MOD(B43,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -6217,7 +6241,7 @@
         <v>4</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="X43" s="17" t="s">
         <v>340</v>
@@ -6234,7 +6258,7 @@
         <v>11140511</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6247,11 +6271,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M44" s="1" t="str">
+      <c r="M44" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N44" s="1" t="str">
+      <c r="N44" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -6284,14 +6308,14 @@
         <v>11140512</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>治愈之风</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>69</v>
@@ -6300,11 +6324,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M45" s="1" t="str">
+      <c r="M45" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N45" s="1" t="str">
+      <c r="N45" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6337,7 +6361,7 @@
         <v>11140121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6350,11 +6374,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M46" s="1" t="str">
+      <c r="M46" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N46" s="1" t="str">
+      <c r="N46" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -6384,27 +6408,27 @@
         <v>11140122</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>死亡通牒</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M47" s="1" t="str">
+      <c r="M47" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N47" s="1" t="str">
+      <c r="N47" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6412,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="P47" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R47" s="1">
         <v>5</v>
@@ -6443,39 +6467,39 @@
         <v>11140123</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D48" s="1" t="str">
         <f>C48</f>
         <v>死亡通牒1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" ref="G48" si="23">MOD(B48,10)</f>
         <v>3</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="K48" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="M48" s="1" t="str">
+      <c r="M48" s="17" t="str">
         <f t="shared" ref="M48" si="24">IF(MOD(B48,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N48" s="1" t="str">
+      <c r="N48" s="17" t="str">
         <f t="shared" ref="N48" si="25">IF(MOD(B48,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -6483,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R48" s="1">
         <v>5</v>
@@ -6495,7 +6519,7 @@
         <v>3</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X48" s="17">
         <v>1</v>
@@ -6522,7 +6546,7 @@
         <v>11204101</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6535,11 +6559,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M49" s="1" t="str">
+      <c r="M49" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N49" s="1" t="str">
+      <c r="N49" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -6569,27 +6593,27 @@
         <v>11204102</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>疾风骤雨</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M50" s="1" t="str">
+      <c r="M50" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N50" s="1" t="str">
+      <c r="N50" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6626,7 +6650,7 @@
         <v>11204103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6637,7 +6661,7 @@
         <v>死亡艺术</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="1"/>
@@ -6655,11 +6679,11 @@
       <c r="L51" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M51" s="1" t="str">
+      <c r="M51" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N51" s="1" t="str">
+      <c r="N51" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6690,13 +6714,13 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B52" s="1">
         <v>11204105</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D52" s="1" t="str">
         <f t="shared" ref="D52" si="26">C52</f>
@@ -6708,10 +6732,10 @@
       <c r="G52" s="1">
         <v>1</v>
       </c>
-      <c r="M52" s="1">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1">
+      <c r="M52" s="17">
+        <v>0</v>
+      </c>
+      <c r="N52" s="17">
         <v>1</v>
       </c>
       <c r="O52" s="1">
@@ -6734,23 +6758,23 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B53" s="1">
         <v>11204104</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D53" s="1" t="str">
         <f t="shared" ref="D53" si="27">C53</f>
         <v>死亡艺术1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G53" s="1">
         <v>2</v>
@@ -6759,11 +6783,11 @@
         <f>C53</f>
         <v>死亡艺术1</v>
       </c>
-      <c r="M53" s="1" t="str">
+      <c r="M53" s="17" t="str">
         <f t="shared" ref="M53" si="28">IF(MOD(B53,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N53" s="1" t="str">
+      <c r="N53" s="17" t="str">
         <f t="shared" ref="N53" si="29">IF(MOD(B53,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -6803,7 +6827,7 @@
         <v>11202101</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6816,11 +6840,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M54" s="1" t="str">
+      <c r="M54" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N54" s="1" t="str">
+      <c r="N54" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -6850,7 +6874,7 @@
         <v>11202102</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6861,17 +6885,17 @@
         <v>最终弹幕</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M55" s="1" t="str">
+      <c r="M55" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N55" s="1" t="str">
+      <c r="N55" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6908,24 +6932,24 @@
         <v>11110211</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>暴走</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M56" s="1" t="str">
+      <c r="M56" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N56" s="1" t="str">
+      <c r="N56" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -6965,20 +6989,20 @@
         <v>裂地重锤</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M57" s="1" t="str">
+      <c r="M57" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N57" s="1" t="str">
+      <c r="N57" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7018,7 +7042,7 @@
         <v>11110213</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7029,7 +7053,7 @@
         <v>区域肃清</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="1"/>
@@ -7047,11 +7071,11 @@
       <c r="L58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M58" s="1" t="str">
+      <c r="M58" s="17" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N58" s="1" t="str">
+      <c r="N58" s="17" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7091,17 +7115,17 @@
         <v>11110214</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D59" s="1" t="str">
         <f t="shared" ref="D59:D61" si="30">C59</f>
         <v>超·区域肃清</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" ref="G59" si="31">MOD(B59,10)</f>
@@ -7123,11 +7147,11 @@
       <c r="L59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="1" t="str">
+      <c r="M59" s="17" t="str">
         <f t="shared" ref="M59:M61" si="32">IF(MOD(B59,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N59" s="1" t="str">
+      <c r="N59" s="17" t="str">
         <f t="shared" ref="N59:N61" si="33">IF(MOD(B59,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -7138,7 +7162,7 @@
         <v>297</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R59" s="1">
         <v>1</v>
@@ -7161,28 +7185,28 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B60" s="1">
         <v>11110215</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D60" s="1" t="str">
         <f t="shared" si="30"/>
         <v>暴走1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
       </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-      <c r="N60" s="1">
+      <c r="M60" s="17">
+        <v>0</v>
+      </c>
+      <c r="N60" s="17">
         <v>1</v>
       </c>
       <c r="O60" s="1">
@@ -7208,13 +7232,13 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B61" s="1">
         <v>11110216</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D61" s="1" t="str">
         <f t="shared" si="30"/>
@@ -7224,16 +7248,16 @@
         <v>279</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G61" s="1">
         <v>2</v>
       </c>
-      <c r="M61" s="1" t="str">
+      <c r="M61" s="17" t="str">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="N61" s="1" t="str">
+      <c r="N61" s="17" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -7276,24 +7300,24 @@
         <v>11205111</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>电击</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" ref="G62:G85" si="34">MOD(B62,10)</f>
         <v>1</v>
       </c>
-      <c r="M62" s="1" t="str">
+      <c r="M62" s="17" t="str">
         <f t="shared" ref="M62:M85" si="35">IF(MOD(B62,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N62" s="1" t="str">
+      <c r="N62" s="17" t="str">
         <f t="shared" ref="N62:N85" si="36">IF(MOD(B62,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -7332,7 +7356,7 @@
         <v>11205112</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7343,17 +7367,17 @@
         <v>磁电链接</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="M63" s="1" t="str">
+      <c r="M63" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N63" s="1" t="str">
+      <c r="N63" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -7399,17 +7423,17 @@
         <v>11205113</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>失控电荷</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="34"/>
@@ -7427,11 +7451,11 @@
       <c r="L64" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="M64" s="1" t="str">
+      <c r="M64" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N64" s="1" t="str">
+      <c r="N64" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -7477,17 +7501,17 @@
         <v>11205114</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D65" s="1" t="str">
         <f t="shared" ref="D65" si="37">C65</f>
         <v>超·失控电荷</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" ref="G65" si="38">MOD(B65,10)</f>
@@ -7509,11 +7533,11 @@
       <c r="L65" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M65" s="1" t="str">
+      <c r="M65" s="17" t="str">
         <f t="shared" ref="M65" si="39">IF(MOD(B65,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N65" s="1" t="str">
+      <c r="N65" s="17" t="str">
         <f t="shared" ref="N65" si="40">IF(MOD(B65,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -7533,13 +7557,13 @@
         <v>2</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="X65" s="17" t="s">
         <v>52</v>
       </c>
       <c r="Y65" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AB65" s="1">
         <v>2</v>
@@ -7559,24 +7583,24 @@
         <v>11305311</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>爆裂</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M66" s="1" t="str">
+      <c r="M66" s="17" t="str">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N66" s="1" t="str">
+      <c r="N66" s="17" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
@@ -7615,27 +7639,27 @@
         <v>11305312</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>地狱烈焰</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="M67" s="1" t="str">
+      <c r="M67" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N67" s="1" t="str">
+      <c r="N67" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -7681,7 +7705,7 @@
         <v>11305313</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7692,7 +7716,7 @@
         <v>索命幽魂</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="34"/>
@@ -7710,11 +7734,11 @@
       <c r="L68" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M68" s="1" t="str">
+      <c r="M68" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N68" s="1" t="str">
+      <c r="N68" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -7760,17 +7784,17 @@
         <v>11305314</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D69" s="1" t="str">
         <f t="shared" ref="D69" si="41">C69</f>
         <v>超·索命幽魂</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" ref="G69" si="42">MOD(B69,10)</f>
@@ -7792,11 +7816,11 @@
       <c r="L69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M69" s="1" t="str">
+      <c r="M69" s="17" t="str">
         <f t="shared" ref="M69" si="43">IF(MOD(B69,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N69" s="1" t="str">
+      <c r="N69" s="17" t="str">
         <f t="shared" ref="N69" si="44">IF(MOD(B69,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -7842,7 +7866,7 @@
         <v>11350011</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D70" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7855,11 +7879,11 @@
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M70" s="1" t="str">
+      <c r="M70" s="17" t="str">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N70" s="1" t="str">
+      <c r="N70" s="17" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
@@ -7889,27 +7913,27 @@
         <v>11350012</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D71" s="1" t="str">
         <f t="shared" si="0"/>
         <v>无情扫荡</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="M71" s="1" t="str">
+      <c r="M71" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N71" s="1" t="str">
+      <c r="N71" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -7942,13 +7966,13 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B72" s="1">
         <v>11350014</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D72" s="1" t="str">
         <f>C72</f>
@@ -7960,10 +7984,10 @@
       <c r="G72" s="1">
         <v>1</v>
       </c>
-      <c r="M72" s="1">
-        <v>0</v>
-      </c>
-      <c r="N72" s="1">
+      <c r="M72" s="17">
+        <v>0</v>
+      </c>
+      <c r="N72" s="17">
         <v>1</v>
       </c>
       <c r="O72" s="1">
@@ -7986,32 +8010,32 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B73" s="1">
         <v>11350013</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D73" s="1" t="str">
         <f t="shared" ref="D73" si="45">C73</f>
         <v>无情扫荡1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G73" s="1">
         <v>2</v>
       </c>
-      <c r="M73" s="1" t="str">
+      <c r="M73" s="17" t="str">
         <f t="shared" ref="M73" si="46">IF(MOD(B73,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N73" s="1" t="str">
+      <c r="N73" s="17" t="str">
         <f t="shared" ref="N73" si="47">IF(MOD(B73,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -8053,7 +8077,7 @@
         <v>11104311</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8066,11 +8090,11 @@
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M74" s="1" t="str">
+      <c r="M74" s="17" t="str">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N74" s="1" t="str">
+      <c r="N74" s="17" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
@@ -8103,7 +8127,7 @@
         <v>11104312</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D75" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8114,17 +8138,17 @@
         <v>愈合激素</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="M75" s="1" t="str">
+      <c r="M75" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N75" s="1" t="str">
+      <c r="N75" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -8166,7 +8190,7 @@
         <v>11350021</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D76" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8179,11 +8203,11 @@
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M76" s="1" t="str">
+      <c r="M76" s="17" t="str">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N76" s="1" t="str">
+      <c r="N76" s="17" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
@@ -8213,27 +8237,27 @@
         <v>11350022</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D77" s="1" t="str">
         <f t="shared" si="0"/>
         <v>喋血街头</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="M77" s="1" t="str">
+      <c r="M77" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N77" s="1" t="str">
+      <c r="N77" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -8264,13 +8288,13 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B78" s="1">
         <v>11350024</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D78" s="1" t="str">
         <f t="shared" ref="D78" si="48">C78</f>
@@ -8282,10 +8306,10 @@
       <c r="G78" s="1">
         <v>1</v>
       </c>
-      <c r="M78" s="1">
-        <v>0</v>
-      </c>
-      <c r="N78" s="1">
+      <c r="M78" s="17">
+        <v>0</v>
+      </c>
+      <c r="N78" s="17">
         <v>1</v>
       </c>
       <c r="O78" s="1">
@@ -8308,32 +8332,32 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B79" s="1">
         <v>11350023</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D79" s="1" t="str">
         <f t="shared" ref="D79" si="49">C79</f>
         <v>喋血街头1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G79" s="1">
         <v>2</v>
       </c>
-      <c r="M79" s="1" t="str">
+      <c r="M79" s="17" t="str">
         <f t="shared" ref="M79" si="50">IF(MOD(B79,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N79" s="1" t="str">
+      <c r="N79" s="17" t="str">
         <f t="shared" ref="N79" si="51">IF(MOD(B79,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -8373,7 +8397,7 @@
         <v>11304311</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D80" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8386,11 +8410,11 @@
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M80" s="1" t="str">
+      <c r="M80" s="17" t="str">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N80" s="1" t="str">
+      <c r="N80" s="17" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
@@ -8423,7 +8447,7 @@
         <v>11304312</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D81" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8434,17 +8458,17 @@
         <v>复苏药剂</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="M81" s="1" t="str">
+      <c r="M81" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N81" s="1" t="str">
+      <c r="N81" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -8484,7 +8508,7 @@
         <v>11202311</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D82" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8497,11 +8521,11 @@
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M82" s="1" t="str">
+      <c r="M82" s="17" t="str">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N82" s="1" t="str">
+      <c r="N82" s="17" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
@@ -8534,7 +8558,7 @@
         <v>11202312</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D83" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8545,17 +8569,17 @@
         <v>战场急救</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="M83" s="1" t="str">
+      <c r="M83" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N83" s="1" t="str">
+      <c r="N83" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -8595,7 +8619,7 @@
         <v>13500301</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D84" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8608,11 +8632,11 @@
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M84" s="1" t="str">
+      <c r="M84" s="17" t="str">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N84" s="1" t="str">
+      <c r="N84" s="17" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
@@ -8642,14 +8666,14 @@
         <v>13500302</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D85" s="1" t="str">
         <f t="shared" si="0"/>
         <v>棒球猛袭</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>70</v>
@@ -8658,11 +8682,11 @@
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="M85" s="1" t="str">
+      <c r="M85" s="17" t="str">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="N85" s="1" t="str">
+      <c r="N85" s="17" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -8692,7 +8716,7 @@
         <v>11204201</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D86" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8704,10 +8728,10 @@
       <c r="G86" s="1">
         <v>1</v>
       </c>
-      <c r="M86" s="1">
-        <v>0</v>
-      </c>
-      <c r="N86" s="1">
+      <c r="M86" s="17">
+        <v>0</v>
+      </c>
+      <c r="N86" s="17">
         <v>2</v>
       </c>
       <c r="O86" s="1">
@@ -8736,7 +8760,7 @@
         <v>11204202</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D87" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8747,15 +8771,15 @@
         <v>阴影袭杀</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G87" s="1">
         <v>2</v>
       </c>
-      <c r="M87" s="1">
-        <v>4</v>
-      </c>
-      <c r="N87" s="1">
+      <c r="M87" s="17">
+        <v>4</v>
+      </c>
+      <c r="N87" s="17">
         <v>0</v>
       </c>
       <c r="O87" s="1">
@@ -8800,7 +8824,7 @@
         <v>11402201</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D88" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8812,10 +8836,10 @@
       <c r="G88" s="1">
         <v>1</v>
       </c>
-      <c r="M88" s="1">
-        <v>0</v>
-      </c>
-      <c r="N88" s="1">
+      <c r="M88" s="17">
+        <v>0</v>
+      </c>
+      <c r="N88" s="17">
         <v>2</v>
       </c>
       <c r="O88" s="1">
@@ -8844,7 +8868,7 @@
         <v>11402202</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D89" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8855,15 +8879,15 @@
         <v>狂热火力</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G89" s="1">
         <v>2</v>
       </c>
-      <c r="M89" s="1">
-        <v>4</v>
-      </c>
-      <c r="N89" s="1">
+      <c r="M89" s="17">
+        <v>4</v>
+      </c>
+      <c r="N89" s="17">
         <v>0</v>
       </c>
       <c r="O89" s="1">
@@ -8895,7 +8919,7 @@
         <v>11402203</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D90" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8906,7 +8930,7 @@
         <v>攻势如潮</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G90" s="1">
         <v>3</v>
@@ -8923,10 +8947,10 @@
       <c r="L90" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M90" s="1">
-        <v>4</v>
-      </c>
-      <c r="N90" s="1">
+      <c r="M90" s="17">
+        <v>4</v>
+      </c>
+      <c r="N90" s="17">
         <v>0</v>
       </c>
       <c r="O90" s="1">
@@ -8967,7 +8991,7 @@
         <v>11304101</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D91" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8980,11 +9004,11 @@
         <f t="shared" ref="G91:G92" si="52">MOD(B91,10)</f>
         <v>1</v>
       </c>
-      <c r="M91" s="1" t="str">
+      <c r="M91" s="17" t="str">
         <f t="shared" ref="M91:M92" si="53">IF(MOD(B91,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N91" s="1" t="str">
+      <c r="N91" s="17" t="str">
         <f t="shared" ref="N91:N92" si="54">IF(MOD(B91,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -9014,7 +9038,7 @@
         <v>11304102</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D92" s="1" t="str">
         <f t="shared" ref="D92:E124" si="55">C92</f>
@@ -9025,17 +9049,17 @@
         <v>断筋折骨</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="52"/>
         <v>2</v>
       </c>
-      <c r="M92" s="1" t="str">
+      <c r="M92" s="17" t="str">
         <f t="shared" si="53"/>
         <v>4</v>
       </c>
-      <c r="N92" s="1" t="str">
+      <c r="N92" s="17" t="str">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
@@ -9072,7 +9096,7 @@
         <v>13500601</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D93" s="1" t="str">
         <f t="shared" si="55"/>
@@ -9084,10 +9108,10 @@
       <c r="G93" s="1">
         <v>1</v>
       </c>
-      <c r="M93" s="1">
-        <v>0</v>
-      </c>
-      <c r="N93" s="1">
+      <c r="M93" s="17">
+        <v>0</v>
+      </c>
+      <c r="N93" s="17">
         <v>2</v>
       </c>
       <c r="O93" s="1">
@@ -9116,14 +9140,14 @@
         <v>13500602</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D94" s="1" t="str">
         <f t="shared" si="55"/>
         <v>逃徒奋杀</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>70</v>
@@ -9131,10 +9155,10 @@
       <c r="G94" s="1">
         <v>2</v>
       </c>
-      <c r="M94" s="1">
-        <v>4</v>
-      </c>
-      <c r="N94" s="1">
+      <c r="M94" s="17">
+        <v>4</v>
+      </c>
+      <c r="N94" s="17">
         <v>0</v>
       </c>
       <c r="O94" s="1">
@@ -9163,7 +9187,7 @@
         <v>11404201</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D95" s="1" t="str">
         <f t="shared" si="55"/>
@@ -9176,11 +9200,11 @@
         <f t="shared" ref="G95:G96" si="56">MOD(B95,10)</f>
         <v>1</v>
       </c>
-      <c r="M95" s="1" t="str">
+      <c r="M95" s="17" t="str">
         <f t="shared" ref="M95:M96" si="57">IF(MOD(B95,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N95" s="1" t="str">
+      <c r="N95" s="17" t="str">
         <f t="shared" ref="N95:N96" si="58">IF(MOD(B95,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -9210,27 +9234,27 @@
         <v>11404202</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D96" s="1" t="str">
         <f t="shared" si="55"/>
         <v>血口獠牙</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="56"/>
         <v>2</v>
       </c>
-      <c r="M96" s="1" t="str">
+      <c r="M96" s="17" t="str">
         <f t="shared" si="57"/>
         <v>4</v>
       </c>
-      <c r="N96" s="1" t="str">
+      <c r="N96" s="17" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -9267,22 +9291,22 @@
         <v>11106101</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D97" s="1" t="str">
         <f t="shared" si="55"/>
         <v>侵扰</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
       </c>
-      <c r="M97" s="1">
-        <v>0</v>
-      </c>
-      <c r="N97" s="1">
+      <c r="M97" s="17">
+        <v>0</v>
+      </c>
+      <c r="N97" s="17">
         <v>2</v>
       </c>
       <c r="O97" s="1">
@@ -9320,7 +9344,7 @@
         <v>11106102</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D98" s="1" t="str">
         <f t="shared" si="55"/>
@@ -9331,15 +9355,15 @@
         <v>贯穿之矢</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G98" s="1">
         <v>2</v>
       </c>
-      <c r="M98" s="1">
-        <v>4</v>
-      </c>
-      <c r="N98" s="1">
+      <c r="M98" s="17">
+        <v>4</v>
+      </c>
+      <c r="N98" s="17">
         <v>0</v>
       </c>
       <c r="O98" s="1">
@@ -9377,24 +9401,24 @@
         <v>11101101</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D99" s="1" t="str">
         <f t="shared" si="55"/>
         <v>裁决</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G99" s="1">
         <f t="shared" ref="G99:G100" si="59">MOD(B99,10)</f>
         <v>1</v>
       </c>
-      <c r="M99" s="1" t="str">
+      <c r="M99" s="17" t="str">
         <f t="shared" ref="M99:M100" si="60">IF(MOD(B99,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N99" s="1" t="str">
+      <c r="N99" s="17" t="str">
         <f t="shared" ref="N99:N100" si="61">IF(MOD(B99,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -9433,7 +9457,7 @@
         <v>11101102</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D100" s="1" t="str">
         <f t="shared" si="55"/>
@@ -9444,17 +9468,17 @@
         <v>静电打击</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="M100" s="1" t="str">
+      <c r="M100" s="17" t="str">
         <f t="shared" si="60"/>
         <v>4</v>
       </c>
-      <c r="N100" s="1" t="str">
+      <c r="N100" s="17" t="str">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
@@ -9500,17 +9524,17 @@
         <v>11101103</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D101" s="1" t="str">
         <f t="shared" si="55"/>
         <v>过载脉冲</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" ref="G101" si="62">MOD(B101,10)</f>
@@ -9528,11 +9552,11 @@
       <c r="L101" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M101" s="1" t="str">
+      <c r="M101" s="17" t="str">
         <f t="shared" ref="M101" si="63">IF(MOD(B101,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N101" s="1" t="str">
+      <c r="N101" s="17" t="str">
         <f t="shared" ref="N101" si="64">IF(MOD(B101,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -9578,17 +9602,17 @@
         <v>11101104</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D102" s="1" t="str">
         <f t="shared" ref="D102" si="65">C102</f>
         <v>超·过载脉冲</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G102" s="1">
         <f t="shared" ref="G102" si="66">MOD(B102,10)</f>
@@ -9610,11 +9634,11 @@
       <c r="L102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M102" s="1" t="str">
+      <c r="M102" s="17" t="str">
         <f t="shared" ref="M102" si="67">IF(MOD(B102,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N102" s="1" t="str">
+      <c r="N102" s="17" t="str">
         <f t="shared" ref="N102" si="68">IF(MOD(B102,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -9634,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="X102" s="17">
         <v>1</v>
@@ -9660,7 +9684,7 @@
         <v>11405201</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D103" s="1" t="str">
         <f t="shared" si="55"/>
@@ -9673,11 +9697,11 @@
         <f t="shared" ref="G103:G110" si="69">MOD(B103,10)</f>
         <v>1</v>
       </c>
-      <c r="M103" s="1" t="str">
+      <c r="M103" s="17" t="str">
         <f t="shared" ref="M103:M110" si="70">IF(MOD(B103,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N103" s="1" t="str">
+      <c r="N103" s="17" t="str">
         <f t="shared" ref="N103:N110" si="71">IF(MOD(B103,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -9710,7 +9734,7 @@
         <v>11405202</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D104" s="1" t="str">
         <f t="shared" si="55"/>
@@ -9721,17 +9745,17 @@
         <v>生化试剂</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G104" s="1">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="M104" s="1" t="str">
+      <c r="M104" s="17" t="str">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
-      <c r="N104" s="1" t="str">
+      <c r="N104" s="17" t="str">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
@@ -9767,24 +9791,24 @@
         <v>11402101</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D105" s="1" t="str">
         <f t="shared" si="55"/>
         <v>钩锁</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="M105" s="1" t="str">
+      <c r="M105" s="17" t="str">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="N105" s="1" t="str">
+      <c r="N105" s="17" t="str">
         <f t="shared" si="71"/>
         <v>2</v>
       </c>
@@ -9821,7 +9845,7 @@
         <v>11402102</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D106" s="1" t="str">
         <f t="shared" si="55"/>
@@ -9832,17 +9856,17 @@
         <v>血腥咆哮</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="M106" s="1" t="str">
+      <c r="M106" s="17" t="str">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
-      <c r="N106" s="1" t="str">
+      <c r="N106" s="17" t="str">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
@@ -9885,17 +9909,17 @@
         <v>11402103</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D107" s="1" t="str">
         <f t="shared" si="55"/>
         <v>屠戮盛宴</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G107" s="1">
         <f t="shared" ref="G107" si="72">MOD(B107,10)</f>
@@ -9913,11 +9937,11 @@
       <c r="L107" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M107" s="1" t="str">
+      <c r="M107" s="17" t="str">
         <f t="shared" ref="M107" si="73">IF(MOD(B107,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N107" s="1" t="str">
+      <c r="N107" s="17" t="str">
         <f t="shared" ref="N107" si="74">IF(MOD(B107,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -9925,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="P107" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R107" s="1">
         <v>3</v>
@@ -9960,17 +9984,17 @@
         <v>11402104</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D108" s="1" t="str">
         <f t="shared" ref="D108" si="75">C108</f>
         <v>超·屠戮盛宴</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G108" s="1">
         <f t="shared" ref="G108" si="76">MOD(B108,10)</f>
@@ -9992,11 +10016,11 @@
       <c r="L108" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M108" s="1" t="str">
+      <c r="M108" s="17" t="str">
         <f t="shared" ref="M108" si="77">IF(MOD(B108,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N108" s="1" t="str">
+      <c r="N108" s="17" t="str">
         <f t="shared" ref="N108" si="78">IF(MOD(B108,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -10004,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="P108" s="13" t="s">
-        <v>66</v>
+        <v>671</v>
       </c>
       <c r="R108" s="1">
         <v>3</v>
@@ -10016,7 +10040,7 @@
         <v>3</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="X108" s="17" t="s">
         <v>52</v>
@@ -10031,270 +10055,270 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="24" t="s">
+    <row r="109" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="24">
+      <c r="B109" s="21">
         <v>11301201</v>
       </c>
-      <c r="C109" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="D109" s="24" t="str">
+      <c r="C109" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D109" s="21" t="str">
         <f t="shared" si="55"/>
         <v>落刃</v>
       </c>
-      <c r="F109" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="G109" s="24">
+      <c r="F109" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="G109" s="21">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="M109" s="24" t="str">
+      <c r="M109" s="22" t="str">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="N109" s="24" t="str">
+      <c r="N109" s="22" t="str">
         <f t="shared" si="71"/>
         <v>2</v>
       </c>
-      <c r="O109" s="24">
-        <v>1</v>
-      </c>
-      <c r="P109" s="14" t="s">
-        <v>35</v>
+      <c r="O109" s="21">
+        <v>1</v>
+      </c>
+      <c r="P109" s="27" t="s">
+        <v>673</v>
       </c>
       <c r="Q109" s="14"/>
-      <c r="R109" s="24">
-        <v>1</v>
-      </c>
-      <c r="T109" s="24">
+      <c r="R109" s="21">
+        <v>1</v>
+      </c>
+      <c r="T109" s="21">
         <v>40</v>
       </c>
-      <c r="U109" s="24">
-        <v>0</v>
-      </c>
-      <c r="W109" s="24" t="s">
+      <c r="U109" s="21">
+        <v>0</v>
+      </c>
+      <c r="W109" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="X109" s="25">
+      <c r="X109" s="22">
         <v>0.5</v>
       </c>
-      <c r="Y109" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="24" t="s">
+      <c r="Y109" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="24">
+      <c r="B110" s="21">
         <v>11301202</v>
       </c>
-      <c r="C110" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="D110" s="24" t="str">
+      <c r="C110" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="D110" s="21" t="str">
         <f t="shared" si="55"/>
         <v>一字皆杀</v>
       </c>
-      <c r="E110" s="24" t="str">
+      <c r="E110" s="21" t="str">
         <f t="shared" si="55"/>
         <v>一字皆杀</v>
       </c>
-      <c r="F110" s="24" t="s">
-        <v>641</v>
-      </c>
-      <c r="G110" s="24">
+      <c r="F110" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="G110" s="21">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="M110" s="24" t="str">
+      <c r="M110" s="22" t="str">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
-      <c r="N110" s="24" t="str">
+      <c r="N110" s="22" t="str">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="O110" s="24">
+      <c r="O110" s="21">
         <v>1</v>
       </c>
       <c r="P110" s="14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q110" s="14"/>
-      <c r="R110" s="24">
-        <v>1</v>
-      </c>
-      <c r="T110" s="24">
+      <c r="R110" s="21">
+        <v>1</v>
+      </c>
+      <c r="T110" s="21">
         <v>115</v>
       </c>
-      <c r="U110" s="24">
-        <v>4</v>
-      </c>
-      <c r="W110" s="24" t="s">
+      <c r="U110" s="21">
+        <v>4</v>
+      </c>
+      <c r="W110" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="X110" s="25" t="s">
+      <c r="X110" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="Y110" s="25" t="s">
+      <c r="Y110" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
+    <row r="111" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B111" s="24">
+      <c r="B111" s="21">
         <v>11301203</v>
       </c>
-      <c r="C111" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="D111" s="24" t="str">
+      <c r="C111" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D111" s="21" t="str">
         <f t="shared" si="55"/>
         <v>向死而生</v>
       </c>
-      <c r="E111" s="24" t="str">
+      <c r="E111" s="21" t="str">
         <f t="shared" si="55"/>
         <v>向死而生</v>
       </c>
-      <c r="F111" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="G111" s="24">
+      <c r="F111" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="G111" s="21">
         <f t="shared" ref="G111" si="79">MOD(B111,10)</f>
         <v>3</v>
       </c>
-      <c r="I111" s="24" t="s">
+      <c r="I111" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="J111" s="24" t="s">
+      <c r="J111" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K111" s="24" t="s">
+      <c r="K111" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="L111" s="24" t="s">
+      <c r="L111" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M111" s="24" t="str">
+      <c r="M111" s="22" t="str">
         <f t="shared" ref="M111" si="80">IF(MOD(B111,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N111" s="24" t="str">
+      <c r="N111" s="22" t="str">
         <f t="shared" ref="N111" si="81">IF(MOD(B111,10)=1,"2","0")</f>
         <v>0</v>
       </c>
-      <c r="O111" s="24">
+      <c r="O111" s="21">
         <v>1</v>
       </c>
       <c r="P111" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q111" s="14"/>
-      <c r="R111" s="24">
-        <v>1</v>
-      </c>
-      <c r="T111" s="24">
+      <c r="R111" s="21">
+        <v>1</v>
+      </c>
+      <c r="T111" s="21">
         <v>149</v>
       </c>
-      <c r="U111" s="24">
-        <v>4</v>
-      </c>
-      <c r="W111" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="X111" s="25" t="s">
+      <c r="U111" s="21">
+        <v>4</v>
+      </c>
+      <c r="W111" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="X111" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="Y111" s="25" t="s">
+      <c r="Y111" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="24" t="s">
+    <row r="112" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B112" s="24">
+      <c r="B112" s="21">
         <v>11301204</v>
       </c>
-      <c r="C112" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="D112" s="24" t="str">
+      <c r="C112" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="D112" s="21" t="str">
         <f t="shared" ref="D112" si="82">C112</f>
         <v>超·向死而生</v>
       </c>
-      <c r="E112" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="F112" s="24" t="s">
-        <v>671</v>
-      </c>
-      <c r="G112" s="24">
+      <c r="E112" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="G112" s="21">
         <f t="shared" ref="G112" si="83">MOD(B112,10)</f>
         <v>4</v>
       </c>
-      <c r="H112" s="24" t="str">
+      <c r="H112" s="21" t="str">
         <f>C112</f>
         <v>超·向死而生</v>
       </c>
-      <c r="I112" s="24" t="s">
+      <c r="I112" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="J112" s="24" t="s">
+      <c r="J112" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K112" s="24" t="s">
+      <c r="K112" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="L112" s="24" t="s">
+      <c r="L112" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M112" s="24" t="str">
+      <c r="M112" s="22" t="str">
         <f t="shared" ref="M112" si="84">IF(MOD(B112,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N112" s="24" t="str">
+      <c r="N112" s="22" t="str">
         <f t="shared" ref="N112" si="85">IF(MOD(B112,10)=1,"2","0")</f>
         <v>0</v>
       </c>
-      <c r="O112" s="24">
+      <c r="O112" s="21">
         <v>1</v>
       </c>
       <c r="P112" s="14" t="s">
-        <v>348</v>
+        <v>672</v>
       </c>
       <c r="Q112" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R112" s="24">
-        <v>1</v>
-      </c>
-      <c r="T112" s="24">
+      <c r="R112" s="21">
+        <v>1</v>
+      </c>
+      <c r="T112" s="21">
         <v>161</v>
       </c>
-      <c r="U112" s="24">
-        <v>4</v>
-      </c>
-      <c r="W112" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="X112" s="25" t="s">
+      <c r="U112" s="21">
+        <v>4</v>
+      </c>
+      <c r="W112" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="X112" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="Y112" s="25" t="s">
+      <c r="Y112" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Z112" s="24">
-        <v>1</v>
-      </c>
-      <c r="AA112" s="24">
+      <c r="Z112" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="21">
         <v>1</v>
       </c>
     </row>
@@ -10306,22 +10330,22 @@
         <v>11206101</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D113" s="1" t="str">
         <f t="shared" si="55"/>
         <v>锯鲨</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G113" s="1">
         <v>1</v>
       </c>
-      <c r="M113" s="1">
-        <v>0</v>
-      </c>
-      <c r="N113" s="1">
+      <c r="M113" s="17">
+        <v>0</v>
+      </c>
+      <c r="N113" s="17">
         <v>2</v>
       </c>
       <c r="O113" s="1">
@@ -10357,25 +10381,25 @@
         <v>11206102</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D114" s="1" t="str">
         <f t="shared" si="55"/>
         <v>锯鲨风暴</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G114" s="1">
         <v>2</v>
       </c>
-      <c r="M114" s="1">
-        <v>4</v>
-      </c>
-      <c r="N114" s="1">
+      <c r="M114" s="17">
+        <v>4</v>
+      </c>
+      <c r="N114" s="17">
         <v>0</v>
       </c>
       <c r="O114" s="1">
@@ -10411,17 +10435,17 @@
         <v>11206103</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D115" s="1" t="str">
         <f t="shared" si="55"/>
         <v>残虐猛击</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G115" s="1">
         <v>3</v>
@@ -10438,10 +10462,10 @@
       <c r="L115" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M115" s="1">
-        <v>4</v>
-      </c>
-      <c r="N115" s="1">
+      <c r="M115" s="17">
+        <v>4</v>
+      </c>
+      <c r="N115" s="17">
         <v>0</v>
       </c>
       <c r="O115" s="1">
@@ -10477,17 +10501,17 @@
         <v>11206104</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D116" s="1" t="str">
         <f t="shared" ref="D116" si="86">C116</f>
         <v>超·残虐猛击</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G116" s="1">
         <v>4</v>
@@ -10508,10 +10532,10 @@
       <c r="L116" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M116" s="1">
-        <v>4</v>
-      </c>
-      <c r="N116" s="1">
+      <c r="M116" s="17">
+        <v>4</v>
+      </c>
+      <c r="N116" s="17">
         <v>0</v>
       </c>
       <c r="O116" s="1">
@@ -10530,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="W116" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="X116" s="17" t="s">
         <v>340</v>
@@ -10547,7 +10571,7 @@
         <v>11403201</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D117" s="1" t="str">
         <f t="shared" si="55"/>
@@ -10559,10 +10583,10 @@
       <c r="G117" s="1">
         <v>1</v>
       </c>
-      <c r="M117" s="1">
-        <v>0</v>
-      </c>
-      <c r="N117" s="1">
+      <c r="M117" s="17">
+        <v>0</v>
+      </c>
+      <c r="N117" s="17">
         <v>2</v>
       </c>
       <c r="O117" s="1">
@@ -10591,25 +10615,25 @@
         <v>11403202</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D118" s="1" t="str">
         <f t="shared" si="55"/>
         <v>鞭刃乱舞</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G118" s="1">
         <v>2</v>
       </c>
-      <c r="M118" s="1">
-        <v>4</v>
-      </c>
-      <c r="N118" s="1">
+      <c r="M118" s="17">
+        <v>4</v>
+      </c>
+      <c r="N118" s="17">
         <v>0</v>
       </c>
       <c r="O118" s="1">
@@ -10648,7 +10672,7 @@
         <v>11302101</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D119" s="1" t="str">
         <f t="shared" si="55"/>
@@ -10661,11 +10685,11 @@
         <f t="shared" ref="G119:G120" si="87">MOD(B119,10)</f>
         <v>1</v>
       </c>
-      <c r="M119" s="1" t="str">
+      <c r="M119" s="17" t="str">
         <f t="shared" ref="M119:M120" si="88">IF(MOD(B119,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N119" s="1" t="str">
+      <c r="N119" s="17" t="str">
         <f t="shared" ref="N119:N120" si="89">IF(MOD(B119,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -10695,7 +10719,7 @@
         <v>11302102</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D120" s="1" t="str">
         <f t="shared" si="55"/>
@@ -10712,11 +10736,11 @@
         <f t="shared" si="87"/>
         <v>2</v>
       </c>
-      <c r="M120" s="1" t="str">
+      <c r="M120" s="17" t="str">
         <f t="shared" si="88"/>
         <v>4</v>
       </c>
-      <c r="N120" s="1" t="str">
+      <c r="N120" s="17" t="str">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
@@ -10746,7 +10770,7 @@
         <v>11305101</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D121" s="1" t="str">
         <f t="shared" si="55"/>
@@ -10758,10 +10782,10 @@
       <c r="G121" s="1">
         <v>1</v>
       </c>
-      <c r="M121" s="1">
-        <v>0</v>
-      </c>
-      <c r="N121" s="1">
+      <c r="M121" s="17">
+        <v>0</v>
+      </c>
+      <c r="N121" s="17">
         <v>2</v>
       </c>
       <c r="O121" s="1">
@@ -10790,7 +10814,7 @@
         <v>11305102</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D122" s="1" t="str">
         <f t="shared" si="55"/>
@@ -10801,15 +10825,15 @@
         <v>利刃冲击</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G122" s="1">
         <v>2</v>
       </c>
-      <c r="M122" s="1">
-        <v>4</v>
-      </c>
-      <c r="N122" s="1">
+      <c r="M122" s="17">
+        <v>4</v>
+      </c>
+      <c r="N122" s="17">
         <v>0</v>
       </c>
       <c r="O122" s="1">
@@ -10847,7 +10871,7 @@
         <v>11305201</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D123" s="1" t="str">
         <f t="shared" si="55"/>
@@ -10859,10 +10883,10 @@
       <c r="G123" s="1">
         <v>1</v>
       </c>
-      <c r="M123" s="1">
-        <v>0</v>
-      </c>
-      <c r="N123" s="1">
+      <c r="M123" s="17">
+        <v>0</v>
+      </c>
+      <c r="N123" s="17">
         <v>2</v>
       </c>
       <c r="O123" s="1">
@@ -10891,7 +10915,7 @@
         <v>11305202</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D124" s="1" t="str">
         <f t="shared" si="55"/>
@@ -10902,15 +10926,15 @@
         <v>毒瓶投掷</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G124" s="1">
         <v>2</v>
       </c>
-      <c r="M124" s="1">
-        <v>4</v>
-      </c>
-      <c r="N124" s="1">
+      <c r="M124" s="17">
+        <v>4</v>
+      </c>
+      <c r="N124" s="17">
         <v>0</v>
       </c>
       <c r="O124" s="1">
@@ -10946,7 +10970,7 @@
         <v>11305203</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D125" s="1" t="str">
         <f t="shared" ref="D125:E159" si="90">C125</f>
@@ -10957,7 +10981,7 @@
         <v>毁灭狂欢</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G125" s="1">
         <v>3</v>
@@ -10974,10 +10998,10 @@
       <c r="L125" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M125" s="1">
-        <v>4</v>
-      </c>
-      <c r="N125" s="1">
+      <c r="M125" s="17">
+        <v>4</v>
+      </c>
+      <c r="N125" s="17">
         <v>0</v>
       </c>
       <c r="O125" s="1">
@@ -11019,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G126" s="1">
         <v>3</v>
@@ -11040,10 +11064,10 @@
       <c r="L126" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M126" s="1">
-        <v>4</v>
-      </c>
-      <c r="N126" s="1">
+      <c r="M126" s="17">
+        <v>4</v>
+      </c>
+      <c r="N126" s="17">
         <v>0</v>
       </c>
       <c r="O126" s="1">
@@ -11079,7 +11103,7 @@
         <v>11205201</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D127" s="1" t="str">
         <f t="shared" si="90"/>
@@ -11092,11 +11116,11 @@
         <f t="shared" ref="G127:G130" si="91">MOD(B127,10)</f>
         <v>1</v>
       </c>
-      <c r="M127" s="1" t="str">
+      <c r="M127" s="17" t="str">
         <f t="shared" ref="M127:M130" si="92">IF(MOD(B127,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N127" s="1" t="str">
+      <c r="N127" s="17" t="str">
         <f t="shared" ref="N127:N130" si="93">IF(MOD(B127,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -11126,7 +11150,7 @@
         <v>11205202</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D128" s="1" t="str">
         <f t="shared" si="90"/>
@@ -11137,17 +11161,17 @@
         <v>致命和弦</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G128" s="1">
         <f t="shared" si="91"/>
         <v>2</v>
       </c>
-      <c r="M128" s="1" t="str">
+      <c r="M128" s="17" t="str">
         <f t="shared" si="92"/>
         <v>4</v>
       </c>
-      <c r="N128" s="1" t="str">
+      <c r="N128" s="17" t="str">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
@@ -11184,7 +11208,7 @@
         <v>11203101</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D129" s="1" t="str">
         <f t="shared" si="90"/>
@@ -11197,11 +11221,11 @@
         <f t="shared" si="91"/>
         <v>1</v>
       </c>
-      <c r="M129" s="1" t="str">
+      <c r="M129" s="17" t="str">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="N129" s="1" t="str">
+      <c r="N129" s="17" t="str">
         <f t="shared" si="93"/>
         <v>2</v>
       </c>
@@ -11231,7 +11255,7 @@
         <v>11203102</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D130" s="1" t="str">
         <f t="shared" si="90"/>
@@ -11242,17 +11266,17 @@
         <v>所向披靡</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G130" s="1">
         <f t="shared" si="91"/>
         <v>2</v>
       </c>
-      <c r="M130" s="1" t="str">
+      <c r="M130" s="17" t="str">
         <f t="shared" si="92"/>
         <v>4</v>
       </c>
-      <c r="N130" s="1" t="str">
+      <c r="N130" s="17" t="str">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
@@ -11289,17 +11313,17 @@
         <v>11203103</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D131" s="1" t="str">
         <f t="shared" si="90"/>
         <v>狂乱锤击</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G131" s="1">
         <f t="shared" ref="G131" si="94">MOD(B131,10)</f>
@@ -11317,11 +11341,11 @@
       <c r="L131" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M131" s="1" t="str">
+      <c r="M131" s="17" t="str">
         <f t="shared" ref="M131" si="95">IF(MOD(B131,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N131" s="1" t="str">
+      <c r="N131" s="17" t="str">
         <f t="shared" ref="N131" si="96">IF(MOD(B131,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -11367,7 +11391,7 @@
         <v>11203104</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D132" s="1" t="str">
         <f t="shared" ref="D132" si="97">C132</f>
@@ -11375,16 +11399,16 @@
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G132" s="1">
         <v>2</v>
       </c>
-      <c r="M132" s="1" t="str">
+      <c r="M132" s="17" t="str">
         <f t="shared" ref="M132" si="98">IF(MOD(B132,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N132" s="1" t="str">
+      <c r="N132" s="17" t="str">
         <f t="shared" ref="N132" si="99">IF(MOD(B132,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -11443,11 +11467,11 @@
         <f t="shared" ref="G133:G136" si="100">MOD(B133,10)</f>
         <v>1</v>
       </c>
-      <c r="M133" s="1" t="str">
+      <c r="M133" s="17" t="str">
         <f t="shared" ref="M133:M136" si="101">IF(MOD(B133,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N133" s="1" t="str">
+      <c r="N133" s="17" t="str">
         <f t="shared" ref="N133:N136" si="102">IF(MOD(B133,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -11477,27 +11501,27 @@
         <v>11201202</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D134" s="1" t="str">
         <f t="shared" si="90"/>
         <v>大地震颤</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G134" s="1">
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="M134" s="1" t="str">
+      <c r="M134" s="17" t="str">
         <f t="shared" si="101"/>
         <v>4</v>
       </c>
-      <c r="N134" s="1" t="str">
+      <c r="N134" s="17" t="str">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
@@ -11534,7 +11558,7 @@
         <v>11404101</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D135" s="1" t="str">
         <f t="shared" si="90"/>
@@ -11547,11 +11571,11 @@
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="M135" s="1" t="str">
+      <c r="M135" s="17" t="str">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="N135" s="1" t="str">
+      <c r="N135" s="17" t="str">
         <f t="shared" si="102"/>
         <v>2</v>
       </c>
@@ -11581,7 +11605,7 @@
         <v>11404102</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D136" s="1" t="str">
         <f t="shared" si="90"/>
@@ -11592,17 +11616,17 @@
         <v>利刃狂涛</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G136" s="1">
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="M136" s="1" t="str">
+      <c r="M136" s="17" t="str">
         <f t="shared" si="101"/>
         <v>4</v>
       </c>
-      <c r="N136" s="1" t="str">
+      <c r="N136" s="17" t="str">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
@@ -11639,7 +11663,7 @@
         <v>11404103</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D137" s="1" t="str">
         <f t="shared" si="90"/>
@@ -11650,7 +11674,7 @@
         <v>恶徒怒火</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G137" s="1">
         <f t="shared" ref="G137" si="104">MOD(B137,10)</f>
@@ -11668,11 +11692,11 @@
       <c r="L137" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M137" s="1" t="str">
+      <c r="M137" s="17" t="str">
         <f t="shared" ref="M137" si="105">IF(MOD(B137,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N137" s="1" t="str">
+      <c r="N137" s="17" t="str">
         <f t="shared" ref="N137" si="106">IF(MOD(B137,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -11709,14 +11733,14 @@
         <v>11404104</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D138" s="1" t="str">
         <f t="shared" ref="D138" si="107">C138</f>
         <v>恶徒怒火1</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G138" s="1">
         <f t="shared" ref="G138" si="108">MOD(B138,10)</f>
@@ -11738,11 +11762,11 @@
       <c r="L138" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M138" s="1" t="str">
+      <c r="M138" s="17" t="str">
         <f t="shared" ref="M138" si="109">IF(MOD(B138,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N138" s="1" t="str">
+      <c r="N138" s="17" t="str">
         <f t="shared" ref="N138" si="110">IF(MOD(B138,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -11779,7 +11803,7 @@
         <v>11301101</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D139" s="1" t="str">
         <f t="shared" si="90"/>
@@ -11792,11 +11816,11 @@
         <f>MOD(B139,10)</f>
         <v>1</v>
       </c>
-      <c r="M139" s="1" t="str">
+      <c r="M139" s="17" t="str">
         <f>IF(MOD(B139,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N139" s="1" t="str">
+      <c r="N139" s="17" t="str">
         <f>IF(MOD(B139,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -11826,27 +11850,27 @@
         <v>11301102</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D140" s="1" t="str">
         <f t="shared" si="90"/>
         <v>忍法·鹰落</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G140" s="1">
         <f>MOD(B140,10)</f>
         <v>2</v>
       </c>
-      <c r="M140" s="1" t="str">
+      <c r="M140" s="17" t="str">
         <f>IF(MOD(B140,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N140" s="1" t="str">
+      <c r="N140" s="17" t="str">
         <f>IF(MOD(B140,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -11883,17 +11907,17 @@
         <v>11301103</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D141" s="1" t="str">
         <f t="shared" si="90"/>
         <v>最佳战略</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G141" s="1">
         <f>MOD(B141,10)</f>
@@ -11911,11 +11935,11 @@
       <c r="L141" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M141" s="1" t="str">
+      <c r="M141" s="17" t="str">
         <f>IF(MOD(B141,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N141" s="1" t="str">
+      <c r="N141" s="17" t="str">
         <f>IF(MOD(B141,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -11952,14 +11976,14 @@
         <v>11301104</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D142" s="1" t="str">
         <f t="shared" ref="D142" si="111">C142</f>
         <v>最佳战略1</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G142" s="1">
         <f>MOD(B142,10)</f>
@@ -11981,11 +12005,11 @@
       <c r="L142" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M142" s="1" t="str">
+      <c r="M142" s="17" t="str">
         <f>IF(MOD(B142,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N142" s="1" t="str">
+      <c r="N142" s="17" t="str">
         <f>IF(MOD(B142,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -12022,7 +12046,7 @@
         <v>11201101</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D143" s="1" t="str">
         <f t="shared" si="90"/>
@@ -12035,11 +12059,11 @@
         <f>MOD(B143,10)</f>
         <v>1</v>
       </c>
-      <c r="M143" s="1" t="str">
+      <c r="M143" s="17" t="str">
         <f>IF(MOD(B143,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N143" s="1" t="str">
+      <c r="N143" s="17" t="str">
         <f>IF(MOD(B143,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -12069,25 +12093,25 @@
         <v>11201102</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D144" s="1" t="str">
         <f t="shared" si="90"/>
         <v>怒火链枷</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G144" s="1">
         <v>2</v>
       </c>
-      <c r="M144" s="1">
-        <v>4</v>
-      </c>
-      <c r="N144" s="1">
+      <c r="M144" s="17">
+        <v>4</v>
+      </c>
+      <c r="N144" s="17">
         <v>0</v>
       </c>
       <c r="O144" s="1">
@@ -12123,7 +12147,7 @@
         <v>11201103</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D145" s="1" t="str">
         <f t="shared" si="90"/>
@@ -12134,7 +12158,7 @@
         <v>残忍无情</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G145" s="1">
         <v>3</v>
@@ -12151,10 +12175,10 @@
       <c r="L145" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="M145" s="1">
-        <v>4</v>
-      </c>
-      <c r="N145" s="1">
+      <c r="M145" s="17">
+        <v>4</v>
+      </c>
+      <c r="N145" s="17">
         <v>0</v>
       </c>
       <c r="O145" s="1">
@@ -12205,11 +12229,11 @@
       <c r="G146" s="1">
         <v>1</v>
       </c>
-      <c r="M146" s="1" t="str">
+      <c r="M146" s="17" t="str">
         <f t="shared" ref="M146" si="112">IF(MOD(B146,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N146" s="1" t="str">
+      <c r="N146" s="17" t="str">
         <f t="shared" ref="N146" si="113">IF(MOD(B146,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -12250,15 +12274,15 @@
         <v>虐杀快感</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G147" s="1">
         <v>2</v>
       </c>
-      <c r="M147" s="1">
-        <v>4</v>
-      </c>
-      <c r="N147" s="1">
+      <c r="M147" s="17">
+        <v>4</v>
+      </c>
+      <c r="N147" s="17">
         <v>0</v>
       </c>
       <c r="O147" s="1">
@@ -12294,7 +12318,7 @@
         <v>11304201</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D148" s="1" t="str">
         <f t="shared" si="90"/>
@@ -12306,10 +12330,10 @@
       <c r="G148" s="1">
         <v>1</v>
       </c>
-      <c r="M148" s="1">
-        <v>0</v>
-      </c>
-      <c r="N148" s="1">
+      <c r="M148" s="17">
+        <v>0</v>
+      </c>
+      <c r="N148" s="17">
         <v>2</v>
       </c>
       <c r="O148" s="1">
@@ -12338,7 +12362,7 @@
         <v>11304202</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D149" s="1" t="str">
         <f t="shared" si="90"/>
@@ -12349,15 +12373,15 @@
         <v>怒目金刚</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G149" s="1">
         <v>2</v>
       </c>
-      <c r="M149" s="1">
-        <v>4</v>
-      </c>
-      <c r="N149" s="1">
+      <c r="M149" s="17">
+        <v>4</v>
+      </c>
+      <c r="N149" s="17">
         <v>0</v>
       </c>
       <c r="O149" s="1">
@@ -12395,7 +12419,7 @@
         <v>11304203</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D150" s="1" t="str">
         <f t="shared" si="90"/>
@@ -12406,7 +12430,7 @@
         <v>横冲直撞</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G150" s="1">
         <v>3</v>
@@ -12423,10 +12447,10 @@
       <c r="L150" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M150" s="1">
-        <v>4</v>
-      </c>
-      <c r="N150" s="1">
+      <c r="M150" s="17">
+        <v>4</v>
+      </c>
+      <c r="N150" s="17">
         <v>0</v>
       </c>
       <c r="O150" s="1">
@@ -12464,14 +12488,14 @@
         <v>11304204</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D151" s="1" t="str">
         <f t="shared" ref="D151" si="114">C151</f>
         <v>横冲直撞1</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G151" s="1">
         <v>4</v>
@@ -12492,10 +12516,10 @@
       <c r="L151" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M151" s="1">
-        <v>4</v>
-      </c>
-      <c r="N151" s="1">
+      <c r="M151" s="17">
+        <v>4</v>
+      </c>
+      <c r="N151" s="17">
         <v>0</v>
       </c>
       <c r="O151" s="1">
@@ -12546,11 +12570,11 @@
         <f t="shared" ref="G152:G154" si="115">MOD(B152,10)</f>
         <v>1</v>
       </c>
-      <c r="M152" s="1" t="str">
+      <c r="M152" s="17" t="str">
         <f t="shared" ref="M152:M154" si="116">IF(MOD(B152,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N152" s="1" t="str">
+      <c r="N152" s="17" t="str">
         <f t="shared" ref="N152:N154" si="117">IF(MOD(B152,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -12580,7 +12604,7 @@
         <v>11206202</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D153" s="1" t="str">
         <f t="shared" si="90"/>
@@ -12591,17 +12615,17 @@
         <v>剑影重重</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G153" s="1">
         <f t="shared" si="115"/>
         <v>2</v>
       </c>
-      <c r="M153" s="1" t="str">
+      <c r="M153" s="17" t="str">
         <f t="shared" si="116"/>
         <v>4</v>
       </c>
-      <c r="N153" s="1" t="str">
+      <c r="N153" s="17" t="str">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
@@ -12638,7 +12662,7 @@
         <v>11206203</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D154" s="1" t="str">
         <f t="shared" si="90"/>
@@ -12649,7 +12673,7 @@
         <v>英伦杀机</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G154" s="1">
         <f t="shared" si="115"/>
@@ -12667,11 +12691,11 @@
       <c r="L154" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M154" s="1" t="str">
+      <c r="M154" s="17" t="str">
         <f t="shared" si="116"/>
         <v>4</v>
       </c>
-      <c r="N154" s="1" t="str">
+      <c r="N154" s="17" t="str">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
@@ -12705,14 +12729,14 @@
         <v>11206204</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D155" s="1" t="str">
         <f t="shared" ref="D155" si="118">C155</f>
         <v>英伦杀机1</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G155" s="1">
         <f t="shared" ref="G155" si="119">MOD(B155,10)</f>
@@ -12734,11 +12758,11 @@
       <c r="L155" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M155" s="1" t="str">
+      <c r="M155" s="17" t="str">
         <f t="shared" ref="M155" si="120">IF(MOD(B155,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N155" s="1" t="str">
+      <c r="N155" s="17" t="str">
         <f t="shared" ref="N155" si="121">IF(MOD(B155,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -12784,11 +12808,11 @@
       <c r="G156" s="1">
         <v>1</v>
       </c>
-      <c r="M156" s="1" t="str">
+      <c r="M156" s="17" t="str">
         <f t="shared" ref="M156:M159" si="122">IF(MOD(B156,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N156" s="1" t="str">
+      <c r="N156" s="17" t="str">
         <f t="shared" ref="N156:N159" si="123">IF(MOD(B156,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -12818,7 +12842,7 @@
         <v>11306102</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D157" s="1" t="str">
         <f t="shared" si="90"/>
@@ -12829,16 +12853,16 @@
         <v>恶徒进击</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G157" s="1">
         <v>2</v>
       </c>
-      <c r="M157" s="1" t="str">
+      <c r="M157" s="17" t="str">
         <f t="shared" si="122"/>
         <v>4</v>
       </c>
-      <c r="N157" s="1" t="str">
+      <c r="N157" s="17" t="str">
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
@@ -12888,11 +12912,11 @@
         <f t="shared" ref="G158:G159" si="124">MOD(B158,10)</f>
         <v>1</v>
       </c>
-      <c r="M158" s="1" t="str">
+      <c r="M158" s="17" t="str">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="N158" s="1" t="str">
+      <c r="N158" s="17" t="str">
         <f t="shared" si="123"/>
         <v>2</v>
       </c>
@@ -12933,17 +12957,17 @@
         <v>猎杀本能</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G159" s="1">
         <f t="shared" si="124"/>
         <v>2</v>
       </c>
-      <c r="M159" s="1" t="str">
+      <c r="M159" s="17" t="str">
         <f t="shared" si="122"/>
         <v>4</v>
       </c>
-      <c r="N159" s="1" t="str">
+      <c r="N159" s="17" t="str">
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
@@ -12980,10 +13004,10 @@
         <v>11403101</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="1" t="s">
@@ -12992,11 +13016,11 @@
       <c r="G160" s="1">
         <v>1</v>
       </c>
-      <c r="M160" s="1" t="str">
+      <c r="M160" s="17" t="str">
         <f t="shared" ref="M160:M161" si="125">IF(MOD(B160,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N160" s="1" t="str">
+      <c r="N160" s="17" t="str">
         <f t="shared" ref="N160:N161" si="126">IF(MOD(B160,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -13026,25 +13050,25 @@
         <v>11403102</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G161" s="1">
         <v>2</v>
       </c>
-      <c r="M161" s="1" t="str">
+      <c r="M161" s="17" t="str">
         <f t="shared" si="125"/>
         <v>4</v>
       </c>
-      <c r="N161" s="1" t="str">
+      <c r="N161" s="17" t="str">
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
@@ -13081,16 +13105,16 @@
         <v>11403103</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G162" s="1">
         <v>3</v>
@@ -13107,10 +13131,10 @@
       <c r="L162" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M162" s="1">
-        <v>4</v>
-      </c>
-      <c r="N162" s="1">
+      <c r="M162" s="17">
+        <v>4</v>
+      </c>
+      <c r="N162" s="17">
         <v>0</v>
       </c>
       <c r="O162" s="1">
@@ -13146,13 +13170,13 @@
         <v>11403104</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="F163" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G163" s="1">
         <v>4</v>
@@ -13173,10 +13197,10 @@
       <c r="L163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M163" s="1">
-        <v>4</v>
-      </c>
-      <c r="N163" s="1">
+      <c r="M163" s="17">
+        <v>4</v>
+      </c>
+      <c r="N163" s="17">
         <v>0</v>
       </c>
       <c r="O163" s="1">
@@ -13212,10 +13236,10 @@
         <v>11302201</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="1" t="s">
@@ -13224,11 +13248,11 @@
       <c r="G164" s="1">
         <v>1</v>
       </c>
-      <c r="M164" s="1" t="str">
+      <c r="M164" s="17" t="str">
         <f t="shared" ref="M164:M165" si="127">IF(MOD(B164,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N164" s="1" t="str">
+      <c r="N164" s="17" t="str">
         <f t="shared" ref="N164:N165" si="128">IF(MOD(B164,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -13252,31 +13276,31 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B165" s="7">
         <v>11302202</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G165" s="1">
         <v>2</v>
       </c>
-      <c r="M165" s="1" t="str">
+      <c r="M165" s="17" t="str">
         <f t="shared" si="127"/>
         <v>4</v>
       </c>
-      <c r="N165" s="1" t="str">
+      <c r="N165" s="17" t="str">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
@@ -13284,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="P165" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R165" s="1">
         <v>3</v>
@@ -13296,7 +13320,7 @@
         <v>3</v>
       </c>
       <c r="W165" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="X165" s="17">
         <v>1</v>
@@ -13307,22 +13331,22 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B166" s="7">
         <v>11302203</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G166" s="1">
         <v>3</v>
@@ -13339,11 +13363,11 @@
       <c r="L166" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M166" s="1" t="str">
+      <c r="M166" s="17" t="str">
         <f t="shared" ref="M166" si="129">IF(MOD(B166,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N166" s="1" t="str">
+      <c r="N166" s="17" t="str">
         <f t="shared" ref="N166" si="130">IF(MOD(B166,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -13363,7 +13387,7 @@
         <v>3</v>
       </c>
       <c r="W166" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X166" s="17">
         <v>1</v>
@@ -13380,13 +13404,13 @@
         <v>11302204</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="F167" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G167" s="1">
         <v>4</v>
@@ -13407,11 +13431,11 @@
       <c r="L167" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M167" s="1" t="str">
+      <c r="M167" s="17" t="str">
         <f t="shared" ref="M167" si="131">IF(MOD(B167,10)=1,"0","4")</f>
         <v>4</v>
       </c>
-      <c r="N167" s="1" t="str">
+      <c r="N167" s="17" t="str">
         <f t="shared" ref="N167" si="132">IF(MOD(B167,10)=1,"2","0")</f>
         <v>0</v>
       </c>
@@ -13431,7 +13455,7 @@
         <v>3</v>
       </c>
       <c r="W167" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X167" s="17">
         <v>1</v>
@@ -13448,10 +13472,10 @@
         <v>11203201</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="1" t="s">
@@ -13460,11 +13484,11 @@
       <c r="G168" s="1">
         <v>1</v>
       </c>
-      <c r="M168" s="6" t="str">
+      <c r="M168" s="26" t="str">
         <f t="shared" ref="M168:M169" si="133">IF(MOD(B168,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N168" s="6" t="str">
+      <c r="N168" s="26" t="str">
         <f t="shared" ref="N168:N169" si="134">IF(MOD(B168,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -13494,25 +13518,25 @@
         <v>11203202</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G169" s="1">
         <v>2</v>
       </c>
-      <c r="M169" s="6" t="str">
+      <c r="M169" s="26" t="str">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
-      <c r="N169" s="6" t="str">
+      <c r="N169" s="26" t="str">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
@@ -13545,10 +13569,10 @@
         <v>13500901</v>
       </c>
       <c r="C170" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D170" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>72</v>
@@ -13556,11 +13580,11 @@
       <c r="G170" s="1">
         <v>1</v>
       </c>
-      <c r="M170" s="6" t="str">
+      <c r="M170" s="26" t="str">
         <f t="shared" ref="M170" si="135">IF(MOD(B170,10)=1,"0","4")</f>
         <v>0</v>
       </c>
-      <c r="N170" s="6" t="str">
+      <c r="N170" s="26" t="str">
         <f t="shared" ref="N170" si="136">IF(MOD(B170,10)=1,"2","0")</f>
         <v>2</v>
       </c>
@@ -13590,24 +13614,24 @@
         <v>13500902</v>
       </c>
       <c r="C171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G171" s="1">
         <v>2</v>
       </c>
-      <c r="M171" s="1">
-        <v>4</v>
-      </c>
-      <c r="N171" s="1">
+      <c r="M171" s="17">
+        <v>4</v>
+      </c>
+      <c r="N171" s="17">
         <v>0</v>
       </c>
       <c r="O171" s="1">
